--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Zensar Technologies Ltd/Pruned_Excel/Semi_Final/Zensar Technologies Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Zensar Technologies Ltd/Pruned_Excel/Semi_Final/Zensar Technologies Ltd_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="111">
   <si>
     <t>Balance Sheet of Zensar Technologies(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,64 +62,67 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 05</t>
-  </si>
-  <si>
-    <t>Mar 06</t>
-  </si>
-  <si>
-    <t>Mar 07</t>
-  </si>
-  <si>
-    <t>Mar 08</t>
-  </si>
-  <si>
-    <t>Mar 09</t>
-  </si>
-  <si>
-    <t>Mar 10</t>
-  </si>
-  <si>
-    <t>Mar 11</t>
-  </si>
-  <si>
-    <t>Mar 12</t>
-  </si>
-  <si>
-    <t>Mar 13</t>
-  </si>
-  <si>
-    <t>Mar 14</t>
-  </si>
-  <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
   <si>
     <t>Cash Flow of Zensar Technologies(in Rs. Cr.)</t>
@@ -215,9 +221,6 @@
     <t>Quarterly Results of Zensar Technologies(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -275,49 +278,10 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>09</t>
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
   <si>
     <t>06</t>
@@ -744,13 +708,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,824 +754,887 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>23.34</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>99.26000000000001</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>99.28</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>122.61</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1.25</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>39.68</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>176.68</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>37.42</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>54.72</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>60.13</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>116.55</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>176.68</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>23.44</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>118.44</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>118.46</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>141.89</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1.71</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>41.47</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>198.25</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>43.09</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>57.1</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>78.2</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>120.05</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>198.25</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>23.92</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>146.96</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>146.98</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>170.9</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.37</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>51.1</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>236.65</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>48.73</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>70.83</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>98.63</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>138.01</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>236.65</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>23.96</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>181.05</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>181.06</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>205.03</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>66.83</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>271.86</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>45.83</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>87.62</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>111.04</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>160.83</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>271.86</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>23.97</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>230.47</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>230.48</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>254.45</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>69.09999999999999</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>323.54</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>81.06999999999999</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>103.05</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>137.19</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>186.35</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>323.54</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>21.58</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>272.34</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>272.36</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>293.94</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>78.45</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>372.39</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>69.81</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>99.17</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>120.22</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>252.16</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>372.39</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>43.3</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>97.69</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>323.67</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>366.97</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>46.92</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>84.27</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>458.35</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>88.31999999999999</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>99.23999999999999</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>151.92</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>306.43</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>458.35</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>43.41</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>68.05</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>374.03</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>417.44</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>54.56</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>110.63</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>540.9</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>86.03</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>94.59</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>140.27</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>400.63</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>540.9</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>43.58</v>
-      </c>
-      <c r="C10">
-        <v>465.37</v>
       </c>
       <c r="D10">
         <v>465.37</v>
       </c>
       <c r="E10">
+        <v>465.37</v>
+      </c>
+      <c r="F10">
         <v>508.96</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>40.84</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>91.18000000000001</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>611.33</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>79.08</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>87.98</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>128.54</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>482.78</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>611.33</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>43.77</v>
-      </c>
-      <c r="C11">
-        <v>600.5</v>
       </c>
       <c r="D11">
         <v>600.5</v>
       </c>
       <c r="E11">
+        <v>600.5</v>
+      </c>
+      <c r="F11">
         <v>644.26</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>46.71</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>104.39</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>759.89</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>72.95999999999999</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>85.03</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>136.65</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>623.24</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>759.89</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>44.33</v>
-      </c>
-      <c r="C12">
-        <v>726.04</v>
       </c>
       <c r="D12">
         <v>726.04</v>
       </c>
       <c r="E12">
+        <v>726.04</v>
+      </c>
+      <c r="F12">
         <v>770.36</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>54.06</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>131.58</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>915.58</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>77.48999999999999</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>103.98</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>160.4</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>755.1900000000001</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>915.58</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
         <v>44.63</v>
-      </c>
-      <c r="C13">
-        <v>898.88</v>
       </c>
       <c r="D13">
         <v>898.88</v>
       </c>
       <c r="E13">
+        <v>898.88</v>
+      </c>
+      <c r="F13">
         <v>943.51</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>79.76000000000001</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>147.82</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1104.97</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>82.02</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>102.52</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>151.42</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>953.55</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>1104.97</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
         <v>44.87</v>
-      </c>
-      <c r="C14">
-        <v>1083.29</v>
       </c>
       <c r="D14">
         <v>1083.29</v>
       </c>
       <c r="E14">
+        <v>1083.29</v>
+      </c>
+      <c r="F14">
         <v>1128.16</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>97.48999999999999</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>165.81</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1310.3</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>79.38</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>102.19</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>240.7</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1069.6</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1310.3</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>44.99</v>
-      </c>
-      <c r="C15">
-        <v>1207.92</v>
       </c>
       <c r="D15">
         <v>1207.92</v>
       </c>
       <c r="E15">
+        <v>1207.92</v>
+      </c>
+      <c r="F15">
         <v>1252.91</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>147.66</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>237.86</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1553.53</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>84</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>215.08</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>422.84</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1130.69</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>1553.53</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
         <v>45.04</v>
-      </c>
-      <c r="C16">
-        <v>1425.79</v>
       </c>
       <c r="D16">
         <v>1425.79</v>
       </c>
       <c r="E16">
+        <v>1425.79</v>
+      </c>
+      <c r="F16">
         <v>1470.83</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>171.69</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>258.41</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1749.02</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>81.26000000000001</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>207.91</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>368.98</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1380.04</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1749.02</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>45.08</v>
-      </c>
-      <c r="C17">
-        <v>1528.59</v>
       </c>
       <c r="D17">
         <v>1528.59</v>
       </c>
       <c r="E17">
+        <v>1528.59</v>
+      </c>
+      <c r="F17">
         <v>1573.67</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>212.3</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>292.83</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>2078.26</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>336.09</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>464.4</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>569.48</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1508.78</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>2078.26</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
         <v>45.12</v>
-      </c>
-      <c r="C18">
-        <v>1790.58</v>
       </c>
       <c r="D18">
         <v>1790.58</v>
       </c>
       <c r="E18">
+        <v>1790.58</v>
+      </c>
+      <c r="F18">
         <v>1835.7</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>178.34</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>270.04</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2297.19</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>290.9</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>414.1</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>762.2</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1534.99</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>2297.19</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
         <v>45.2</v>
-      </c>
-      <c r="C19">
-        <v>2036.2</v>
       </c>
       <c r="D19">
         <v>2036.2</v>
       </c>
       <c r="E19">
+        <v>2036.2</v>
+      </c>
+      <c r="F19">
         <v>2081.4</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>196.6</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>308.3</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>2558.4</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>266</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>379.1</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>855.3</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1703.1</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>2558.4</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
         <v>45.3</v>
-      </c>
-      <c r="C20">
-        <v>2257.4</v>
       </c>
       <c r="D20">
         <v>2257.4</v>
       </c>
       <c r="E20">
+        <v>2257.4</v>
+      </c>
+      <c r="F20">
         <v>2302.7</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>251</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>323.1</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>2770.5</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>213.5</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>326.1</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>1090.1</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>1680.4</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>2770.5</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>45.3</v>
-      </c>
-      <c r="C21">
-        <v>2635.3</v>
       </c>
       <c r="D21">
         <v>2635.3</v>
       </c>
       <c r="E21">
+        <v>2635.3</v>
+      </c>
+      <c r="F21">
         <v>2680.6</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>266.1</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>347.2</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>3138.8</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>147.6</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>258.8</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>1396</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>1742.8</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>3138.8</v>
       </c>
     </row>
@@ -1618,618 +1645,681 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>17.16</v>
+      </c>
+      <c r="D2">
+        <v>32.13</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>9.65</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>41.78</v>
+      </c>
+      <c r="I2">
+        <v>9.41</v>
+      </c>
+      <c r="J2">
+        <v>51.19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>28.2</v>
+      </c>
+      <c r="D3">
+        <v>5.46</v>
+      </c>
+      <c r="E3">
+        <v>-32.27</v>
+      </c>
+      <c r="F3">
+        <v>-6.1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>-32.91</v>
+      </c>
+      <c r="I3">
+        <v>51.19</v>
+      </c>
+      <c r="J3">
+        <v>18.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>36.34</v>
+      </c>
+      <c r="D4">
+        <v>30.72</v>
+      </c>
+      <c r="E4">
+        <v>-33.17</v>
+      </c>
+      <c r="F4">
+        <v>-3.67</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>-6.13</v>
+      </c>
+      <c r="I4">
+        <v>18.28</v>
+      </c>
+      <c r="J4">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>48.67</v>
+      </c>
+      <c r="D5">
+        <v>56.17</v>
+      </c>
+      <c r="E5">
+        <v>-26.4</v>
+      </c>
+      <c r="F5">
+        <v>-25.12</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.64</v>
+      </c>
+      <c r="I5">
+        <v>12.15</v>
+      </c>
+      <c r="J5">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>66.68000000000001</v>
+      </c>
+      <c r="D6">
+        <v>63.14</v>
+      </c>
+      <c r="E6">
+        <v>-45.83</v>
+      </c>
+      <c r="F6">
+        <v>-11.2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>6.11</v>
+      </c>
+      <c r="I6">
+        <v>16.8</v>
+      </c>
+      <c r="J6">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>86.59</v>
+      </c>
+      <c r="D7">
+        <v>61.66</v>
+      </c>
+      <c r="E7">
+        <v>-4.33</v>
+      </c>
+      <c r="F7">
+        <v>-52.7</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.63</v>
+      </c>
+      <c r="I7">
+        <v>23.97</v>
+      </c>
+      <c r="J7">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>86.23</v>
+      </c>
+      <c r="D8">
+        <v>49.41</v>
+      </c>
+      <c r="E8">
+        <v>-29.69</v>
+      </c>
+      <c r="F8">
+        <v>-13.62</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>6.1</v>
+      </c>
+      <c r="I8">
+        <v>28.22</v>
+      </c>
+      <c r="J8">
+        <v>34.31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>137.22</v>
+      </c>
+      <c r="D9">
+        <v>74.18000000000001</v>
+      </c>
+      <c r="E9">
+        <v>-38.22</v>
+      </c>
+      <c r="F9">
+        <v>-33.01</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2.95</v>
+      </c>
+      <c r="I9">
+        <v>34.31</v>
+      </c>
+      <c r="J9">
+        <v>37.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>170.99</v>
+      </c>
+      <c r="D10">
+        <v>49.38</v>
+      </c>
+      <c r="E10">
+        <v>3.38</v>
+      </c>
+      <c r="F10">
+        <v>-37.39</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>15.36</v>
+      </c>
+      <c r="I10">
+        <v>37.27</v>
+      </c>
+      <c r="J10">
+        <v>52.63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>257.96</v>
+      </c>
+      <c r="D11">
+        <v>158.76</v>
+      </c>
+      <c r="E11">
+        <v>-110.4</v>
+      </c>
+      <c r="F11">
+        <v>-45.36</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>52.63</v>
+      </c>
+      <c r="J11">
+        <v>55.63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>253.45</v>
+      </c>
+      <c r="D12">
+        <v>119.99</v>
+      </c>
+      <c r="E12">
+        <v>-91.37</v>
+      </c>
+      <c r="F12">
+        <v>-49.8</v>
+      </c>
+      <c r="G12">
+        <v>11.77</v>
+      </c>
+      <c r="H12">
+        <v>-5.28</v>
+      </c>
+      <c r="I12">
+        <v>55.63</v>
+      </c>
+      <c r="J12">
+        <v>50.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>317.16</v>
+      </c>
+      <c r="D13">
+        <v>140.36</v>
+      </c>
+      <c r="E13">
+        <v>-25.69</v>
+      </c>
+      <c r="F13">
+        <v>-81.42</v>
+      </c>
+      <c r="G13">
+        <v>0.4</v>
+      </c>
+      <c r="H13">
+        <v>33.66</v>
+      </c>
+      <c r="I13">
+        <v>50.35</v>
+      </c>
+      <c r="J13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>252.99</v>
+      </c>
+      <c r="D14">
+        <v>130.08</v>
+      </c>
+      <c r="E14">
+        <v>-123.75</v>
+      </c>
+      <c r="F14">
+        <v>-22.35</v>
+      </c>
+      <c r="G14">
+        <v>-11.01</v>
+      </c>
+      <c r="H14">
+        <v>-27.03</v>
+      </c>
+      <c r="I14">
+        <v>84</v>
+      </c>
+      <c r="J14">
+        <v>56.97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>256.78</v>
+      </c>
+      <c r="D15">
+        <v>140.65</v>
+      </c>
+      <c r="E15">
+        <v>-92.17</v>
+      </c>
+      <c r="F15">
+        <v>-80.62</v>
+      </c>
+      <c r="G15">
+        <v>0.45</v>
+      </c>
+      <c r="H15">
+        <v>-31.69</v>
+      </c>
+      <c r="I15">
+        <v>56.97</v>
+      </c>
+      <c r="J15">
+        <v>25.28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>333.51</v>
+      </c>
+      <c r="D16">
+        <v>52.61</v>
+      </c>
+      <c r="E16">
+        <v>112.11</v>
+      </c>
+      <c r="F16">
+        <v>-67.19</v>
+      </c>
+      <c r="G16">
+        <v>0.46</v>
+      </c>
+      <c r="H16">
+        <v>97.98999999999999</v>
+      </c>
+      <c r="I16">
+        <v>23.53</v>
+      </c>
+      <c r="J16">
+        <v>121.52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>304.1</v>
+      </c>
+      <c r="D17">
+        <v>336.18</v>
+      </c>
+      <c r="E17">
+        <v>-262.79</v>
+      </c>
+      <c r="F17">
+        <v>-161.92</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>-88.53</v>
+      </c>
+      <c r="I17">
+        <v>121.52</v>
+      </c>
+      <c r="J17">
+        <v>32.99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>373.18</v>
+      </c>
+      <c r="D18">
+        <v>794.14</v>
+      </c>
+      <c r="E18">
+        <v>-664.91</v>
+      </c>
+      <c r="F18">
+        <v>-77.8</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>51.43</v>
+      </c>
+      <c r="I18">
+        <v>32.99</v>
+      </c>
+      <c r="J18">
+        <v>84.42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>430.3</v>
+      </c>
+      <c r="D19">
+        <v>52.7</v>
+      </c>
+      <c r="E19">
+        <v>80.8</v>
+      </c>
+      <c r="F19">
+        <v>-132.9</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0.6</v>
+      </c>
+      <c r="I19">
+        <v>84.40000000000001</v>
+      </c>
+      <c r="J19">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>403.4</v>
+      </c>
+      <c r="D20">
+        <v>548.9</v>
+      </c>
+      <c r="E20">
+        <v>-410.5</v>
+      </c>
+      <c r="F20">
+        <v>-158.9</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>-20.5</v>
+      </c>
+      <c r="I20">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="J20">
+        <v>66.09999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>17.16</v>
-      </c>
-      <c r="C2">
-        <v>32.13</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>9.65</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>41.78</v>
-      </c>
-      <c r="H2">
-        <v>9.41</v>
-      </c>
-      <c r="I2">
-        <v>51.19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>28.2</v>
-      </c>
-      <c r="C3">
-        <v>5.46</v>
-      </c>
-      <c r="D3">
-        <v>-32.27</v>
-      </c>
-      <c r="E3">
-        <v>-6.1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>-32.91</v>
-      </c>
-      <c r="H3">
-        <v>51.19</v>
-      </c>
-      <c r="I3">
-        <v>18.28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>36.34</v>
-      </c>
-      <c r="C4">
-        <v>30.72</v>
-      </c>
-      <c r="D4">
-        <v>-33.17</v>
-      </c>
-      <c r="E4">
-        <v>-3.67</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>-6.13</v>
-      </c>
-      <c r="H4">
-        <v>18.28</v>
-      </c>
-      <c r="I4">
-        <v>12.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>48.67</v>
-      </c>
-      <c r="C5">
-        <v>56.17</v>
-      </c>
-      <c r="D5">
-        <v>-26.4</v>
-      </c>
-      <c r="E5">
-        <v>-25.12</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>4.64</v>
-      </c>
-      <c r="H5">
-        <v>12.15</v>
-      </c>
-      <c r="I5">
-        <v>16.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>66.68000000000001</v>
-      </c>
-      <c r="C6">
-        <v>63.14</v>
-      </c>
-      <c r="D6">
-        <v>-45.83</v>
-      </c>
-      <c r="E6">
-        <v>-11.2</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>6.11</v>
-      </c>
-      <c r="H6">
-        <v>16.8</v>
-      </c>
-      <c r="I6">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>86.59</v>
-      </c>
-      <c r="C7">
-        <v>61.66</v>
-      </c>
-      <c r="D7">
-        <v>-4.33</v>
-      </c>
-      <c r="E7">
-        <v>-52.7</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>4.63</v>
-      </c>
-      <c r="H7">
-        <v>23.97</v>
-      </c>
-      <c r="I7">
-        <v>28.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>86.23</v>
-      </c>
-      <c r="C8">
-        <v>49.41</v>
-      </c>
-      <c r="D8">
-        <v>-29.69</v>
-      </c>
-      <c r="E8">
-        <v>-13.62</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>6.1</v>
-      </c>
-      <c r="H8">
-        <v>28.22</v>
-      </c>
-      <c r="I8">
-        <v>34.31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>137.22</v>
-      </c>
-      <c r="C9">
-        <v>74.18000000000001</v>
-      </c>
-      <c r="D9">
-        <v>-38.22</v>
-      </c>
-      <c r="E9">
-        <v>-33.01</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>2.95</v>
-      </c>
-      <c r="H9">
-        <v>34.31</v>
-      </c>
-      <c r="I9">
-        <v>37.27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>170.99</v>
-      </c>
-      <c r="C10">
-        <v>49.38</v>
-      </c>
-      <c r="D10">
-        <v>3.38</v>
-      </c>
-      <c r="E10">
-        <v>-37.39</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>15.36</v>
-      </c>
-      <c r="H10">
-        <v>37.27</v>
-      </c>
-      <c r="I10">
-        <v>52.63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>257.96</v>
-      </c>
-      <c r="C11">
-        <v>158.76</v>
-      </c>
-      <c r="D11">
-        <v>-110.4</v>
-      </c>
-      <c r="E11">
-        <v>-45.36</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>52.63</v>
-      </c>
-      <c r="I11">
-        <v>55.63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>253.45</v>
-      </c>
-      <c r="C12">
-        <v>119.99</v>
-      </c>
-      <c r="D12">
-        <v>-91.37</v>
-      </c>
-      <c r="E12">
-        <v>-49.8</v>
-      </c>
-      <c r="F12">
-        <v>11.77</v>
-      </c>
-      <c r="G12">
-        <v>-5.28</v>
-      </c>
-      <c r="H12">
-        <v>55.63</v>
-      </c>
-      <c r="I12">
-        <v>50.35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>317.16</v>
-      </c>
-      <c r="C13">
-        <v>140.36</v>
-      </c>
-      <c r="D13">
-        <v>-25.69</v>
-      </c>
-      <c r="E13">
-        <v>-81.42</v>
-      </c>
-      <c r="F13">
-        <v>0.4</v>
-      </c>
-      <c r="G13">
-        <v>33.66</v>
-      </c>
-      <c r="H13">
-        <v>50.35</v>
-      </c>
-      <c r="I13">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>252.99</v>
-      </c>
-      <c r="C14">
-        <v>130.08</v>
-      </c>
-      <c r="D14">
-        <v>-123.75</v>
-      </c>
-      <c r="E14">
-        <v>-22.35</v>
-      </c>
-      <c r="F14">
-        <v>-11.01</v>
-      </c>
-      <c r="G14">
-        <v>-27.03</v>
-      </c>
-      <c r="H14">
-        <v>84</v>
-      </c>
-      <c r="I14">
-        <v>56.97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>256.78</v>
-      </c>
-      <c r="C15">
-        <v>140.65</v>
-      </c>
-      <c r="D15">
-        <v>-92.17</v>
-      </c>
-      <c r="E15">
-        <v>-80.62</v>
-      </c>
-      <c r="F15">
-        <v>0.45</v>
-      </c>
-      <c r="G15">
-        <v>-31.69</v>
-      </c>
-      <c r="H15">
-        <v>56.97</v>
-      </c>
-      <c r="I15">
-        <v>25.28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>333.51</v>
-      </c>
-      <c r="C16">
-        <v>52.61</v>
-      </c>
-      <c r="D16">
-        <v>112.11</v>
-      </c>
-      <c r="E16">
-        <v>-67.19</v>
-      </c>
-      <c r="F16">
-        <v>0.46</v>
-      </c>
-      <c r="G16">
-        <v>97.98999999999999</v>
-      </c>
-      <c r="H16">
-        <v>23.53</v>
-      </c>
-      <c r="I16">
-        <v>121.52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>304.1</v>
-      </c>
-      <c r="C17">
-        <v>336.18</v>
-      </c>
-      <c r="D17">
-        <v>-262.79</v>
-      </c>
-      <c r="E17">
-        <v>-161.92</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>-88.53</v>
-      </c>
-      <c r="H17">
-        <v>121.52</v>
-      </c>
-      <c r="I17">
-        <v>32.99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>373.18</v>
-      </c>
-      <c r="C18">
-        <v>794.14</v>
-      </c>
-      <c r="D18">
-        <v>-664.91</v>
-      </c>
-      <c r="E18">
-        <v>-77.8</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>51.43</v>
-      </c>
-      <c r="H18">
-        <v>32.99</v>
-      </c>
-      <c r="I18">
-        <v>84.42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>430.3</v>
-      </c>
-      <c r="C19">
-        <v>52.7</v>
-      </c>
-      <c r="D19">
-        <v>80.8</v>
-      </c>
-      <c r="E19">
-        <v>-132.9</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0.6</v>
-      </c>
-      <c r="H19">
-        <v>84.40000000000001</v>
-      </c>
-      <c r="I19">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>403.4</v>
-      </c>
-      <c r="C20">
-        <v>548.9</v>
-      </c>
-      <c r="D20">
-        <v>-410.5</v>
-      </c>
-      <c r="E20">
-        <v>-158.9</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>-20.5</v>
-      </c>
-      <c r="H20">
-        <v>86.59999999999999</v>
-      </c>
-      <c r="I20">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>627.9</v>
+      </c>
+      <c r="D21">
+        <v>461.3</v>
+      </c>
+      <c r="E21">
+        <v>-325.5</v>
+      </c>
+      <c r="F21">
+        <v>-157.6</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>-21.8</v>
+      </c>
+      <c r="I21">
         <v>66.09999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>627.9</v>
-      </c>
-      <c r="C21">
-        <v>461.3</v>
-      </c>
-      <c r="D21">
-        <v>-325.5</v>
-      </c>
-      <c r="E21">
-        <v>-157.6</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>-21.8</v>
-      </c>
-      <c r="H21">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="I21">
+      <c r="J21">
         <v>44.3</v>
       </c>
     </row>
@@ -2240,86 +2330,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>64</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>176.31</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
       </c>
       <c r="C2">
         <v>176.31</v>
@@ -2328,66 +2421,69 @@
         <v>176.31</v>
       </c>
       <c r="E2">
+        <v>176.31</v>
+      </c>
+      <c r="F2">
         <v>23.45</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>199.77</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>5.46</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>102.92</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.23</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>11.73</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>38.65</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>162</v>
-      </c>
-      <c r="M2">
-        <v>37.77</v>
       </c>
       <c r="N2">
         <v>37.77</v>
       </c>
       <c r="O2">
+        <v>37.77</v>
+      </c>
+      <c r="P2">
         <v>0.64</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>0.64</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>37.13</v>
-      </c>
-      <c r="S2">
-        <v>37.59</v>
       </c>
       <c r="T2">
         <v>37.59</v>
       </c>
       <c r="U2">
-        <v>16.11</v>
+        <v>37.59</v>
       </c>
       <c r="V2">
         <v>16.11</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>16.11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>229.09</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
       </c>
       <c r="C3">
         <v>229.09</v>
@@ -2396,66 +2492,69 @@
         <v>229.09</v>
       </c>
       <c r="E3">
+        <v>229.09</v>
+      </c>
+      <c r="F3">
         <v>1.27</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>230.36</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2.68</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>137.03</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.76</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>14.94</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>43.41</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>202.83</v>
-      </c>
-      <c r="M3">
-        <v>27.53</v>
       </c>
       <c r="N3">
         <v>27.53</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>27.53</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>0.9</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>26.63</v>
-      </c>
-      <c r="S3">
-        <v>25.12</v>
       </c>
       <c r="T3">
         <v>25.12</v>
       </c>
       <c r="U3">
-        <v>10.72</v>
+        <v>25.12</v>
       </c>
       <c r="V3">
         <v>10.72</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>10.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>278.28</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
       </c>
       <c r="C4">
         <v>278.28</v>
@@ -2464,66 +2563,69 @@
         <v>278.28</v>
       </c>
       <c r="E4">
+        <v>278.28</v>
+      </c>
+      <c r="F4">
         <v>5.27</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>283.55</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2.73</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>167.17</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.86</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>14.47</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>56.91</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>248.54</v>
-      </c>
-      <c r="M4">
-        <v>35.01</v>
       </c>
       <c r="N4">
         <v>35.01</v>
       </c>
       <c r="O4">
+        <v>35.01</v>
+      </c>
+      <c r="P4">
         <v>1.02</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
       <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>2.02</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>32.99</v>
-      </c>
-      <c r="S4">
-        <v>33.86</v>
       </c>
       <c r="T4">
         <v>33.86</v>
       </c>
       <c r="U4">
-        <v>14.16</v>
+        <v>33.86</v>
       </c>
       <c r="V4">
         <v>14.16</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>14.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>335.87</v>
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
       </c>
       <c r="C5">
         <v>335.87</v>
@@ -2532,66 +2634,69 @@
         <v>335.87</v>
       </c>
       <c r="E5">
+        <v>335.87</v>
+      </c>
+      <c r="F5">
         <v>6.23</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>342.1</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3.83</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>210.87</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.48</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>15.64</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>62.61</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>299.07</v>
-      </c>
-      <c r="M5">
-        <v>43.03</v>
       </c>
       <c r="N5">
         <v>43.03</v>
       </c>
       <c r="O5">
+        <v>43.03</v>
+      </c>
+      <c r="P5">
         <v>2.21</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
       <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>3.29</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>39.74</v>
-      </c>
-      <c r="S5">
-        <v>45.38</v>
       </c>
       <c r="T5">
         <v>45.38</v>
       </c>
       <c r="U5">
-        <v>18.94</v>
+        <v>45.38</v>
       </c>
       <c r="V5">
         <v>18.94</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>18.94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>421.87</v>
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
       </c>
       <c r="C6">
         <v>421.87</v>
@@ -2600,66 +2705,69 @@
         <v>421.87</v>
       </c>
       <c r="E6">
+        <v>421.87</v>
+      </c>
+      <c r="F6">
         <v>4.99</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>426.86</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>16.76</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>243.02</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>22.29</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>73.48999999999999</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>363.94</v>
-      </c>
-      <c r="M6">
-        <v>62.92</v>
       </c>
       <c r="N6">
         <v>62.92</v>
       </c>
       <c r="O6">
+        <v>62.92</v>
+      </c>
+      <c r="P6">
         <v>2.14</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>3.11</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>59.81</v>
-      </c>
-      <c r="S6">
-        <v>60.47</v>
       </c>
       <c r="T6">
         <v>60.47</v>
       </c>
       <c r="U6">
-        <v>25.23</v>
+        <v>60.47</v>
       </c>
       <c r="V6">
         <v>25.23</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>25.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>497.08</v>
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
       </c>
       <c r="C7">
         <v>497.08</v>
@@ -2668,114 +2776,117 @@
         <v>497.08</v>
       </c>
       <c r="E7">
+        <v>497.08</v>
+      </c>
+      <c r="F7">
         <v>3.92</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>501.01</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>11.96</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>284.16</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.27</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>24.92</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>84.11</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>417.63</v>
-      </c>
-      <c r="M7">
-        <v>83.37</v>
       </c>
       <c r="N7">
         <v>83.37</v>
       </c>
       <c r="O7">
+        <v>83.37</v>
+      </c>
+      <c r="P7">
         <v>4.22</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>0.53</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>4.75</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>78.62</v>
-      </c>
-      <c r="S7">
-        <v>93.83</v>
       </c>
       <c r="T7">
         <v>93.83</v>
       </c>
       <c r="U7">
-        <v>43.49</v>
+        <v>93.83</v>
       </c>
       <c r="V7">
         <v>43.49</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>43.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>562.5700000000001</v>
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
       </c>
       <c r="C8">
         <v>562.5700000000001</v>
       </c>
       <c r="D8">
+        <v>562.5700000000001</v>
+      </c>
+      <c r="E8">
         <v>577.61</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>14.21</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>591.8200000000001</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>343.13</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.86</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>25.88</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>135.71</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>505.58</v>
-      </c>
-      <c r="M8">
-        <v>86.23</v>
       </c>
       <c r="N8">
         <v>86.23</v>
       </c>
       <c r="O8">
+        <v>86.23</v>
+      </c>
+      <c r="P8">
         <v>19.79</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-10.02</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>-2.24</v>
-      </c>
-      <c r="R8">
-        <v>88.48</v>
       </c>
       <c r="S8">
         <v>88.48</v>
@@ -2784,66 +2895,69 @@
         <v>88.48</v>
       </c>
       <c r="U8">
+        <v>88.48</v>
+      </c>
+      <c r="V8">
         <v>20.47</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>20.1</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>700.17</v>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
       </c>
       <c r="C9">
         <v>700.17</v>
       </c>
       <c r="D9">
+        <v>700.17</v>
+      </c>
+      <c r="E9">
         <v>712.75</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>27.91</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>740.66</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>411.36</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1.03</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>25.05</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>165.99</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>603.4299999999999</v>
-      </c>
-      <c r="M9">
-        <v>137.22</v>
       </c>
       <c r="N9">
         <v>137.22</v>
       </c>
       <c r="O9">
+        <v>137.22</v>
+      </c>
+      <c r="P9">
         <v>44.36</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-1.69</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>42.67</v>
-      </c>
-      <c r="R9">
-        <v>94.55</v>
       </c>
       <c r="S9">
         <v>94.55</v>
@@ -2852,66 +2966,69 @@
         <v>94.55</v>
       </c>
       <c r="U9">
-        <v>21.79</v>
+        <v>94.55</v>
       </c>
       <c r="V9">
         <v>21.79</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>21.79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>825.0700000000001</v>
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
       </c>
       <c r="C10">
         <v>825.0700000000001</v>
       </c>
       <c r="D10">
+        <v>825.0700000000001</v>
+      </c>
+      <c r="E10">
         <v>837.67</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>34.65</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>872.3099999999999</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>457.36</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.88</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>26.86</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>216.23</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>701.33</v>
-      </c>
-      <c r="M10">
-        <v>170.99</v>
       </c>
       <c r="N10">
         <v>170.99</v>
       </c>
       <c r="O10">
+        <v>170.99</v>
+      </c>
+      <c r="P10">
         <v>50.17</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-0.71</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>49.46</v>
-      </c>
-      <c r="R10">
-        <v>121.53</v>
       </c>
       <c r="S10">
         <v>121.53</v>
@@ -2920,66 +3037,69 @@
         <v>121.53</v>
       </c>
       <c r="U10">
+        <v>121.53</v>
+      </c>
+      <c r="V10">
         <v>27.93</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>27.39</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>908.48</v>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
       </c>
       <c r="C11">
         <v>908.48</v>
       </c>
       <c r="D11">
+        <v>908.48</v>
+      </c>
+      <c r="E11">
         <v>921.8</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>40.21</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>962.02</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>468.91</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1.48</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>29.53</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>204.13</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>704.05</v>
-      </c>
-      <c r="M11">
-        <v>257.96</v>
       </c>
       <c r="N11">
         <v>257.96</v>
       </c>
       <c r="O11">
+        <v>257.96</v>
+      </c>
+      <c r="P11">
         <v>75.91</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-5.17</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>70.73999999999999</v>
-      </c>
-      <c r="R11">
-        <v>187.22</v>
       </c>
       <c r="S11">
         <v>187.22</v>
@@ -2988,134 +3108,140 @@
         <v>187.22</v>
       </c>
       <c r="U11">
+        <v>187.22</v>
+      </c>
+      <c r="V11">
         <v>42.88</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>42.07</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>1052.45</v>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
       </c>
       <c r="C12">
         <v>1052.45</v>
       </c>
       <c r="D12">
+        <v>1052.45</v>
+      </c>
+      <c r="E12">
         <v>1079.93</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>20.79</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1100.73</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>577.15</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1.15</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>32.76</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>236.21</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>847.27</v>
-      </c>
-      <c r="M12">
-        <v>253.45</v>
       </c>
       <c r="N12">
         <v>253.45</v>
       </c>
       <c r="O12">
+        <v>253.45</v>
+      </c>
+      <c r="P12">
         <v>63.59</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>8.460000000000001</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>72.05</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>181.4</v>
-      </c>
-      <c r="S12">
-        <v>183.11</v>
       </c>
       <c r="T12">
         <v>183.11</v>
       </c>
       <c r="U12">
+        <v>183.11</v>
+      </c>
+      <c r="V12">
         <v>41.69</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>41.04</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>1233.12</v>
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
       </c>
       <c r="C13">
         <v>1233.12</v>
       </c>
       <c r="D13">
+        <v>1233.12</v>
+      </c>
+      <c r="E13">
         <v>1245.94</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>46.79</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1292.73</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>642.49</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1.56</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>37.27</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>294.26</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>975.58</v>
-      </c>
-      <c r="M13">
-        <v>317.16</v>
       </c>
       <c r="N13">
         <v>317.16</v>
       </c>
       <c r="O13">
+        <v>317.16</v>
+      </c>
+      <c r="P13">
         <v>87.42</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-4.51</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>82.91</v>
-      </c>
-      <c r="R13">
-        <v>234.25</v>
       </c>
       <c r="S13">
         <v>234.25</v>
@@ -3124,18 +3250,21 @@
         <v>234.25</v>
       </c>
       <c r="U13">
+        <v>234.25</v>
+      </c>
+      <c r="V13">
         <v>52.69</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>1272.39</v>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
       </c>
       <c r="C14">
         <v>1272.39</v>
@@ -3144,46 +3273,46 @@
         <v>1272.39</v>
       </c>
       <c r="E14">
+        <v>1272.39</v>
+      </c>
+      <c r="F14">
         <v>21.72</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1294.11</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>72.22</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>713.9299999999999</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1.67</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>33.88</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>219.42</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1041.12</v>
-      </c>
-      <c r="M14">
-        <v>252.99</v>
       </c>
       <c r="N14">
         <v>252.99</v>
       </c>
       <c r="O14">
+        <v>252.99</v>
+      </c>
+      <c r="P14">
         <v>75.48999999999999</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-2.72</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>72.77</v>
-      </c>
-      <c r="R14">
-        <v>180.22</v>
       </c>
       <c r="S14">
         <v>180.22</v>
@@ -3192,18 +3321,21 @@
         <v>180.22</v>
       </c>
       <c r="U14">
+        <v>180.22</v>
+      </c>
+      <c r="V14">
         <v>40.28</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>39.72</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>1285.81</v>
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
       </c>
       <c r="C15">
         <v>1285.81</v>
@@ -3212,46 +3344,46 @@
         <v>1285.81</v>
       </c>
       <c r="E15">
+        <v>1285.81</v>
+      </c>
+      <c r="F15">
         <v>62.75</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1348.56</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>25.74</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>749.25</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>12.14</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>46.1</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>258.55</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1091.78</v>
-      </c>
-      <c r="M15">
-        <v>256.78</v>
       </c>
       <c r="N15">
         <v>256.78</v>
       </c>
       <c r="O15">
+        <v>256.78</v>
+      </c>
+      <c r="P15">
         <v>73.73999999999999</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-9.539999999999999</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>64.2</v>
-      </c>
-      <c r="R15">
-        <v>192.58</v>
       </c>
       <c r="S15">
         <v>192.58</v>
@@ -3260,18 +3392,21 @@
         <v>192.58</v>
       </c>
       <c r="U15">
+        <v>192.58</v>
+      </c>
+      <c r="V15">
         <v>42.86</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>42.42</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>1370.08</v>
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
       </c>
       <c r="C16">
         <v>1370.08</v>
@@ -3280,46 +3415,46 @@
         <v>1370.08</v>
       </c>
       <c r="E16">
+        <v>1370.08</v>
+      </c>
+      <c r="F16">
         <v>84.98999999999999</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1455.07</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>12.09</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>789.49</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>9.18</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>42.78</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>268.02</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1121.56</v>
-      </c>
-      <c r="M16">
-        <v>333.51</v>
       </c>
       <c r="N16">
         <v>333.51</v>
       </c>
       <c r="O16">
+        <v>333.51</v>
+      </c>
+      <c r="P16">
         <v>81.69</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-6.18</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>75.51000000000001</v>
-      </c>
-      <c r="R16">
-        <v>258</v>
       </c>
       <c r="S16">
         <v>258</v>
@@ -3328,18 +3463,21 @@
         <v>258</v>
       </c>
       <c r="U16">
+        <v>258</v>
+      </c>
+      <c r="V16">
         <v>11.46</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>11.27</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>1370.3</v>
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
       </c>
       <c r="C17">
         <v>1370.3</v>
@@ -3348,46 +3486,46 @@
         <v>1370.3</v>
       </c>
       <c r="E17">
+        <v>1370.3</v>
+      </c>
+      <c r="F17">
         <v>90.93000000000001</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1461.23</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>52.38</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>809.13</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>23.3</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>81.38</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>190.94</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1157.13</v>
-      </c>
-      <c r="M17">
-        <v>304.1</v>
       </c>
       <c r="N17">
         <v>304.1</v>
       </c>
       <c r="O17">
+        <v>304.1</v>
+      </c>
+      <c r="P17">
         <v>62.62</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>10.44</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>73.06</v>
-      </c>
-      <c r="R17">
-        <v>231.04</v>
       </c>
       <c r="S17">
         <v>231.04</v>
@@ -3396,18 +3534,21 @@
         <v>231.04</v>
       </c>
       <c r="U17">
+        <v>231.04</v>
+      </c>
+      <c r="V17">
         <v>10.26</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>10.12</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>1361.78</v>
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
       </c>
       <c r="C18">
         <v>1361.78</v>
@@ -3416,46 +3557,46 @@
         <v>1361.78</v>
       </c>
       <c r="E18">
+        <v>1361.78</v>
+      </c>
+      <c r="F18">
         <v>73.91</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1435.69</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>31.79</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>776.8099999999999</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>21.8</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>89.45</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>142.66</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1062.51</v>
-      </c>
-      <c r="M18">
-        <v>373.18</v>
       </c>
       <c r="N18">
         <v>373.18</v>
       </c>
       <c r="O18">
+        <v>373.18</v>
+      </c>
+      <c r="P18">
         <v>82.51000000000001</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>1.03</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>83.54000000000001</v>
-      </c>
-      <c r="R18">
-        <v>289.64</v>
       </c>
       <c r="S18">
         <v>289.64</v>
@@ -3464,18 +3605,21 @@
         <v>289.64</v>
       </c>
       <c r="U18">
+        <v>289.64</v>
+      </c>
+      <c r="V18">
         <v>12.85</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>12.73</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>1628.9</v>
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
       </c>
       <c r="C19">
         <v>1628.9</v>
@@ -3484,46 +3628,46 @@
         <v>1628.9</v>
       </c>
       <c r="E19">
+        <v>1628.9</v>
+      </c>
+      <c r="F19">
         <v>133.7</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1762.6</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>32.2</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1047.1</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>29.7</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>88.3</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>135</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1332.3</v>
-      </c>
-      <c r="M19">
-        <v>430.3</v>
       </c>
       <c r="N19">
         <v>430.3</v>
       </c>
       <c r="O19">
+        <v>430.3</v>
+      </c>
+      <c r="P19">
         <v>97.09999999999999</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>12.4</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>109.5</v>
-      </c>
-      <c r="R19">
-        <v>320.8</v>
       </c>
       <c r="S19">
         <v>320.8</v>
@@ -3532,18 +3676,21 @@
         <v>320.8</v>
       </c>
       <c r="U19">
+        <v>320.8</v>
+      </c>
+      <c r="V19">
         <v>14.2</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>14.08</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>1823.4</v>
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
       </c>
       <c r="C20">
         <v>1823.4</v>
@@ -3552,46 +3699,46 @@
         <v>1823.4</v>
       </c>
       <c r="E20">
+        <v>1823.4</v>
+      </c>
+      <c r="F20">
         <v>151.7</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1975.1</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>20.6</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>1280</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>18</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>75.5</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>177.6</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>1571.7</v>
-      </c>
-      <c r="M20">
-        <v>403.4</v>
       </c>
       <c r="N20">
         <v>403.4</v>
       </c>
       <c r="O20">
+        <v>403.4</v>
+      </c>
+      <c r="P20">
         <v>94.2</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.8</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>95</v>
-      </c>
-      <c r="R20">
-        <v>308.4</v>
       </c>
       <c r="S20">
         <v>308.4</v>
@@ -3600,18 +3747,21 @@
         <v>308.4</v>
       </c>
       <c r="U20">
+        <v>308.4</v>
+      </c>
+      <c r="V20">
         <v>13.62</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>13.55</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>2019.2</v>
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
       </c>
       <c r="C21">
         <v>2019.2</v>
@@ -3620,46 +3770,46 @@
         <v>2019.2</v>
       </c>
       <c r="E21">
+        <v>2019.2</v>
+      </c>
+      <c r="F21">
         <v>172.6</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>2191.8</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>31.4</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>1310.8</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>15</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>55.5</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>151.2</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>1563.9</v>
-      </c>
-      <c r="M21">
-        <v>627.9</v>
       </c>
       <c r="N21">
         <v>627.9</v>
       </c>
       <c r="O21">
+        <v>627.9</v>
+      </c>
+      <c r="P21">
         <v>150.2</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.7</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>150.9</v>
-      </c>
-      <c r="R21">
-        <v>477</v>
       </c>
       <c r="S21">
         <v>477</v>
@@ -3668,9 +3818,12 @@
         <v>477</v>
       </c>
       <c r="U21">
+        <v>477</v>
+      </c>
+      <c r="V21">
         <v>21.06</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>20.89</v>
       </c>
     </row>
@@ -3689,84 +3842,84 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>240.83</v>
@@ -3831,13 +3984,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>223.99</v>
@@ -3902,13 +4055,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>227.9</v>
@@ -3973,13 +4126,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>230.79</v>
@@ -4044,13 +4197,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>86</v>
       </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>261.95</v>
@@ -4115,13 +4268,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>286.36</v>
@@ -4186,13 +4339,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D8">
         <v>273.35</v>
@@ -4257,13 +4410,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D9">
         <v>286.35</v>
@@ -4328,13 +4481,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D10">
         <v>332.59</v>
@@ -4399,13 +4552,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
         <v>87</v>
       </c>
-      <c r="B11" t="s">
-        <v>98</v>
-      </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D11">
         <v>305.74</v>
@@ -4470,13 +4623,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D12">
         <v>308.44</v>
@@ -4541,13 +4694,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>88</v>
       </c>
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D13">
         <v>322.8</v>
@@ -4612,13 +4765,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D14">
         <v>327.36</v>
@@ -4683,13 +4836,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>324.57</v>
@@ -4754,13 +4907,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D16">
         <v>297.67</v>
@@ -4825,13 +4978,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D17">
         <v>303.31</v>
@@ -4896,13 +5049,13 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
         <v>89</v>
-      </c>
-      <c r="B18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" t="s">
-        <v>101</v>
       </c>
       <c r="D18">
         <v>322.86</v>
@@ -4967,13 +5120,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D19">
         <v>318.46</v>
@@ -5038,13 +5191,13 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D20">
         <v>341.18</v>
@@ -5109,13 +5262,13 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D21">
         <v>342.83</v>
@@ -5180,13 +5333,13 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D22">
         <v>349.18</v>
@@ -5251,13 +5404,13 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
         <v>90</v>
-      </c>
-      <c r="B23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" t="s">
-        <v>102</v>
       </c>
       <c r="D23">
         <v>325.39</v>
@@ -5322,13 +5475,13 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
         <v>91</v>
-      </c>
-      <c r="B24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" t="s">
-        <v>103</v>
       </c>
       <c r="D24">
         <v>352.69</v>
@@ -5393,13 +5546,13 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D25">
         <v>337.06</v>
@@ -5464,13 +5617,13 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D26">
         <v>351.1</v>
@@ -5535,13 +5688,13 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D27">
         <v>329.14</v>
@@ -5606,13 +5759,13 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D28">
         <v>352.99</v>
@@ -5677,13 +5830,13 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
         <v>92</v>
-      </c>
-      <c r="B29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" t="s">
-        <v>104</v>
       </c>
       <c r="D29">
         <v>328.4</v>
@@ -5748,13 +5901,13 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D30">
         <v>336.76</v>
@@ -5819,13 +5972,13 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D31">
         <v>348.73</v>
@@ -5890,13 +6043,13 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D32">
         <v>347.88</v>
@@ -5961,13 +6114,13 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D33">
         <v>370.2</v>
@@ -6032,13 +6185,13 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D34">
         <v>401.8</v>
@@ -6103,13 +6256,13 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D35">
         <v>411.8</v>
@@ -6174,13 +6327,13 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D36">
         <v>445.1</v>
@@ -6245,13 +6398,13 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D37">
         <v>435.4</v>
@@ -6316,13 +6469,13 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D38">
         <v>461.4</v>
@@ -6387,13 +6540,13 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D39">
         <v>449.6</v>
@@ -6458,13 +6611,13 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D40">
         <v>477</v>
@@ -6529,13 +6682,13 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D41">
         <v>489.2</v>
@@ -6600,13 +6753,13 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D42">
         <v>513.9</v>
@@ -6671,13 +6824,13 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D43">
         <v>501</v>
@@ -6742,13 +6895,13 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D44">
         <v>515.1</v>
@@ -6813,13 +6966,13 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D45">
         <v>529.6</v>
@@ -6884,13 +7037,13 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D46">
         <v>556.2</v>
@@ -6960,1185 +7113,1248 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>75.55</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>21.31</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>16.28</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>16.18</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>16.11</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>28.2</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>21.55</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>21.42</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>21.31</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>30.66</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>21.27</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.12</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>14.27</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>10.88</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>85.73</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>434.46</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>8.74</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>97.75</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>18.45</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>12.07</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>11.75</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>10.72</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>18.87</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>12.35</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>12.01</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>10.96</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>17.7</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>12.67</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.1</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>24.25</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>15.21</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>75.75</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>491.68</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>11.37</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>116.34</v>
+      </c>
+      <c r="D4">
+        <v>21.05</v>
+      </c>
+      <c r="E4">
         <v>15</v>
       </c>
-      <c r="B4">
-        <v>116.34</v>
-      </c>
-      <c r="C4">
-        <v>21.05</v>
-      </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="E4">
+      <c r="F4">
         <v>14.64</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>14.16</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>18.09</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>12.89</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>12.58</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>12.16</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>19.81</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>14.3</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.08</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>24.72</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>17.32</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>75.28</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>582.79</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>11.58</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>140.15</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>24.68</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>18.15</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>17.95</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>18.94</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>17.6</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>12.95</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>12.8</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>13.51</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>22.13</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>16.69</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>20.06</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>14.92</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>79.94</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>249.22</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>4.21</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>176.03</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>35.56</v>
-      </c>
-      <c r="D6">
-        <v>26.25</v>
       </c>
       <c r="E6">
         <v>26.25</v>
       </c>
       <c r="F6">
+        <v>26.25</v>
+      </c>
+      <c r="G6">
         <v>25.23</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>20.19</v>
-      </c>
-      <c r="H6">
-        <v>14.91</v>
       </c>
       <c r="I6">
         <v>14.91</v>
       </c>
       <c r="J6">
+        <v>14.91</v>
+      </c>
+      <c r="K6">
         <v>14.33</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>23.76</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>18.69</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>17.83</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>13.03</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>82.17</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>163.91</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1.92</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>230.39</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>50.32</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>38.77</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>38.64</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>43.49</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>21.84</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>16.82</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>16.77</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>18.87</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>31.92</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>25.19</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
       <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
         <v>12.64</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>9.99</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>87.36</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>558.48</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>5.14</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>133.39</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>26.09</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>20.11</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>19.91</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>20.43</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>19.55</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>15.07</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>14.92</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>15.31</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>62.75</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>19.3</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>17.13</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>13.25</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>82.87</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>648.8099999999999</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>5.74</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>164.19</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>37.62</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>31.85</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>31.61</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>21.78</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>22.91</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>19.39</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>19.25</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>13.26</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>84.83</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>17.47</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.02</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>32.13</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>25.4</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>67.87</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>746.21</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>4.57</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>192.21</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>45.6</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>39.44</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>39.23</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>27.89</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>23.72</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>20.51</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>20.41</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>14.5</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>23.87</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>19.87</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.01</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>28.68</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>23.49</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>71.31999999999999</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1015.31</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>5.11</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>210.61</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>66.03</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>59.28</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>58.94</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>42.78</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>31.34</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>28.14</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>27.98</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>20.31</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>29.06</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>24.63</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>23.36</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>20.18</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>76.64</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>1584.28</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>5.48</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>243.63</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>64.83</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>57.44</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>57.18</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>41.31</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>26.61</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>23.57</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>23.46</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>16.95</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>23.76</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>19.99</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
         <v>26.53</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>22.51</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>73.47</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>2794.35</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>9.720000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
         <v>279.16</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>79.76000000000001</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>71.41</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>71.06</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>52.48</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>28.57</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>25.58</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>25.45</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>18.8</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>24.82</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>21.19</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.01</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>22.85</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>19.72</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>77.15000000000001</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>4078.21</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>11.46</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
         <v>283.57</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>64.31</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>56.76</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>56.38</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>40.16</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>22.67</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>20.01</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>19.88</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>14.16</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>15.97</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>13.75</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.01</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>14.48</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>12.19</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>85.52</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>4104.39</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>14.22</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>285.8</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>70.02</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>59.77</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>57.07</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>42.81</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>24.49</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>20.91</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>19.97</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>14.97</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>15.37</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>12.39</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>32.5</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>26.22</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>67.5</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>4012.29</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>12.74</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
         <v>60.84</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>17.12</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>15.22</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>14.81</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>11.46</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>28.13</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>25.01</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>24.34</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>18.83</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>17.54</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>14.75</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
       <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>24.54</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>21.05</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>75.45999999999999</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>5089.47</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>13.2</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>60.79</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>18.14</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>14.53</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>13.49</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>10.25</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>29.83</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>23.89</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>22.19</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>16.86</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>14.68</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>11.11</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>51.64</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>38.19</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>48.36</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>1889.69</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>4.62</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>60.36</v>
+      </c>
+      <c r="D18">
+        <v>21.47</v>
+      </c>
+      <c r="E18">
+        <v>17.51</v>
+      </c>
+      <c r="F18">
+        <v>16.54</v>
+      </c>
+      <c r="G18">
+        <v>12.84</v>
+      </c>
+      <c r="H18">
+        <v>35.57</v>
+      </c>
+      <c r="I18">
         <v>29</v>
       </c>
-      <c r="B18">
-        <v>60.36</v>
-      </c>
-      <c r="C18">
-        <v>21.47</v>
-      </c>
-      <c r="D18">
-        <v>17.51</v>
-      </c>
-      <c r="E18">
-        <v>16.54</v>
-      </c>
-      <c r="F18">
-        <v>12.84</v>
-      </c>
-      <c r="G18">
-        <v>35.57</v>
-      </c>
-      <c r="H18">
-        <v>29</v>
-      </c>
-      <c r="I18">
+      <c r="J18">
         <v>27.4</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>21.26</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>15.77</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>12.6</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
       <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>9.34</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>7.13</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>90.66</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>5760.3</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>11.89</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
         <v>72.08</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>24.26</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>20.35</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>19.04</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>14.19</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>33.66</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>28.23</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>26.41</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>19.69</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>15.41</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>12.53</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
       <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
         <v>27.46</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>21.53</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>72.54000000000001</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>7873.7</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>14.36</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
         <v>80.5</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>21.94</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>18.6</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>17.81</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>13.62</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>27.25</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>23.11</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>22.12</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>16.91</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>13.39</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>11.13</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
       <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
         <v>36.7</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>29.48</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>63.3</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>5895.37</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>11.86</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>89.15000000000001</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>30.83</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>28.38</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>27.72</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>21.06</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>34.58</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>31.83</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>31.09</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>23.62</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>17.79</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>15.19</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
       <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>26.12</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>23.39</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>73.88</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>13465.81</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>19.28</v>
       </c>
     </row>
